--- a/Modelagens/SP Medical Fisico.xlsx
+++ b/Modelagens/SP Medical Fisico.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalhos\Senai\SP Medical Group\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalhos\Senai\SP Medical Group\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506EC3BC-5D1E-43A8-B287-26C36C530C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5724255C-A369-4355-99BF-171EE1BEA2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{721489B3-7EF9-403F-9584-0BB4B1FDEE2A}"/>
+    <workbookView xWindow="4455" yWindow="3495" windowWidth="18000" windowHeight="10005" xr2:uid="{721489B3-7EF9-403F-9584-0BB4B1FDEE2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -525,11 +525,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,37 +570,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9F6DE2-69BB-4165-B55E-5EBA52E43510}">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:J39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,168 +907,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="9" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="9" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="10" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10" t="s">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="10"/>
+      <c r="T3" s="5"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10">
+      <c r="D4" s="5"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="10">
+      <c r="I4" s="5"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="s">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10" t="s">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="10"/>
+      <c r="T4" s="5"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10">
+      <c r="D5" s="5"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1084,1420 +1084,1420 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10">
+      <c r="D6" s="5"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="15" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="5">
         <v>4</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="15" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15" t="s">
+      <c r="L7" s="11"/>
+      <c r="M7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15" t="s">
+      <c r="N7" s="11"/>
+      <c r="O7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="10">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="5">
         <v>5</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="15">
+      <c r="I8" s="5"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11">
         <v>1</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11">
         <v>1</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="15" t="s">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10">
+      <c r="D9" s="13"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="5">
         <v>6</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="15">
+      <c r="I9" s="5"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11">
         <v>2</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11">
         <v>2</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16" t="s">
+      <c r="N9" s="11"/>
+      <c r="O9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="15">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="11">
         <v>123</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10">
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="5">
         <v>7</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="15">
+      <c r="I10" s="5"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11">
         <v>3</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11">
         <v>2</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16" t="s">
+      <c r="N10" s="11"/>
+      <c r="O10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="15">
+      <c r="P10" s="12"/>
+      <c r="Q10" s="11">
         <v>345</v>
       </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10">
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="5">
         <v>8</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="15">
+      <c r="I11" s="5"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11">
         <v>4</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11">
         <v>2</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16" t="s">
+      <c r="N11" s="11"/>
+      <c r="O11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="15">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="11">
         <v>678</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="5">
         <v>9</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="15">
+      <c r="I12" s="5"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11">
         <v>5</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11">
         <v>3</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16" t="s">
+      <c r="N12" s="11"/>
+      <c r="O12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="15">
+      <c r="P12" s="12"/>
+      <c r="Q12" s="11">
         <v>912</v>
       </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="10">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5">
         <v>10</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="15">
+      <c r="I13" s="5"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11">
         <v>6</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11">
         <v>3</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16" t="s">
+      <c r="N13" s="11"/>
+      <c r="O13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="15">
+      <c r="P13" s="12"/>
+      <c r="Q13" s="11">
         <v>345</v>
       </c>
-      <c r="R13" s="15"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="10">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5">
         <v>11</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="15">
+      <c r="I14" s="5"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11">
         <v>7</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11">
         <v>3</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16" t="s">
+      <c r="N14" s="11"/>
+      <c r="O14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="15">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11">
         <v>670</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="5">
         <v>12</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="15">
+      <c r="I15" s="5"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11">
         <v>8</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11">
         <v>3</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16" t="s">
+      <c r="N15" s="11"/>
+      <c r="O15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="15">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11">
         <v>234</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="10">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="5">
         <v>13</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="15">
+      <c r="I16" s="5"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11">
         <v>9</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11">
         <v>3</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16" t="s">
+      <c r="N16" s="11"/>
+      <c r="O16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="15">
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11">
         <v>523</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="5">
         <v>14</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="15">
+      <c r="I17" s="5"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11">
         <v>10</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11">
         <v>3</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16" t="s">
+      <c r="N17" s="11"/>
+      <c r="O17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="15">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11">
         <v>685</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="10">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="5">
         <v>15</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="15">
+      <c r="I18" s="5"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11">
         <v>11</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15">
+      <c r="L18" s="11"/>
+      <c r="M18" s="11">
         <v>3</v>
       </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16" t="s">
+      <c r="N18" s="11"/>
+      <c r="O18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="15">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11">
         <v>809</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="10">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="5">
         <v>16</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="10">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="5">
         <v>17</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="16" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="16" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16" t="s">
+      <c r="N21" s="12"/>
+      <c r="O21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16" t="s">
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16" t="s">
+      <c r="R21" s="12"/>
+      <c r="S21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16" t="s">
+      <c r="T21" s="12"/>
+      <c r="U21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="16"/>
+      <c r="V21" s="12"/>
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="16">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="12">
         <v>1</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12">
         <v>2</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16">
+      <c r="N22" s="12"/>
+      <c r="O22" s="12">
         <v>1</v>
       </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16">
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12">
         <v>2</v>
       </c>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16" t="s">
+      <c r="R22" s="12"/>
+      <c r="S22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16" t="s">
+      <c r="T22" s="12"/>
+      <c r="U22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="V22" s="16"/>
+      <c r="V22" s="12"/>
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="16">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="12">
         <v>2</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12">
         <v>17</v>
       </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16">
+      <c r="N23" s="12"/>
+      <c r="O23" s="12">
         <v>1</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16">
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12">
         <v>3</v>
       </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16" t="s">
+      <c r="R23" s="12"/>
+      <c r="S23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16" t="s">
+      <c r="T23" s="12"/>
+      <c r="U23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="V23" s="16"/>
+      <c r="V23" s="12"/>
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="16">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="12">
         <v>3</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12">
         <v>16</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16">
+      <c r="N24" s="12"/>
+      <c r="O24" s="12">
         <v>1</v>
       </c>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16">
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12">
         <v>4</v>
       </c>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16" t="s">
+      <c r="R24" s="12"/>
+      <c r="S24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16" t="s">
+      <c r="T24" s="12"/>
+      <c r="U24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V24" s="16"/>
+      <c r="V24" s="12"/>
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16" t="s">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16" t="s">
+      <c r="L27" s="12"/>
+      <c r="M27" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16" t="s">
+      <c r="N27" s="12"/>
+      <c r="O27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="12">
         <v>1</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12">
         <v>5</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16" t="s">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17" t="s">
+      <c r="J28" s="12"/>
+      <c r="K28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="16">
+      <c r="L28" s="9"/>
+      <c r="M28" s="12">
         <v>94839859000</v>
       </c>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16" t="s">
+      <c r="N28" s="12"/>
+      <c r="O28" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="12">
         <v>2</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12">
         <v>6</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16" t="s">
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="18"/>
-      <c r="M29" s="16">
+      <c r="L29" s="9"/>
+      <c r="M29" s="12">
         <v>73556944057</v>
       </c>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16" t="s">
+      <c r="N29" s="12"/>
+      <c r="O29" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="12">
         <v>3</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12">
         <v>7</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="19">
+      <c r="F30" s="12"/>
+      <c r="G30" s="18">
         <v>28773</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17" t="s">
+      <c r="J30" s="12"/>
+      <c r="K30" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L30" s="18"/>
-      <c r="M30" s="16">
+      <c r="L30" s="9"/>
+      <c r="M30" s="12">
         <v>16839338002</v>
       </c>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16" t="s">
+      <c r="N30" s="12"/>
+      <c r="O30" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="12">
         <v>4</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12">
         <v>8</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16" t="s">
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17" t="s">
+      <c r="J31" s="12"/>
+      <c r="K31" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="16">
+      <c r="L31" s="9"/>
+      <c r="M31" s="12">
         <v>14332654765</v>
       </c>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16" t="s">
+      <c r="N31" s="12"/>
+      <c r="O31" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="12">
         <v>5</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12">
         <v>9</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16" t="s">
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17" t="s">
+      <c r="J32" s="12"/>
+      <c r="K32" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="16">
+      <c r="L32" s="9"/>
+      <c r="M32" s="12">
         <v>91305348010</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16" t="s">
+      <c r="N32" s="12"/>
+      <c r="O32" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="12">
         <v>6</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12">
         <v>10</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16" t="s">
+      <c r="H33" s="12"/>
+      <c r="I33" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17" t="s">
+      <c r="J33" s="12"/>
+      <c r="K33" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="16">
+      <c r="L33" s="9"/>
+      <c r="M33" s="12">
         <v>79799299004</v>
       </c>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16" t="s">
+      <c r="N33" s="12"/>
+      <c r="O33" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="12">
         <v>7</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12">
         <v>11</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="19">
+      <c r="F34" s="12"/>
+      <c r="G34" s="18">
         <v>43223</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17" t="s">
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="18"/>
-      <c r="M34" s="16">
+      <c r="L34" s="9"/>
+      <c r="M34" s="12">
         <v>13771913039</v>
       </c>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16" t="s">
+      <c r="N34" s="12"/>
+      <c r="O34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16" t="s">
+      <c r="H37" s="12"/>
+      <c r="I37" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16" t="s">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L37" s="16"/>
+      <c r="L37" s="12"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="14"/>
+      <c r="N37" s="3"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="12">
         <v>1</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12">
         <v>3</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12">
         <v>7</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16" t="s">
+      <c r="H38" s="12"/>
+      <c r="I38" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16" t="s">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L38" s="16"/>
+      <c r="L38" s="12"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="14"/>
+      <c r="N38" s="3"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="12">
         <v>2</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12">
         <v>2</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12">
         <v>2</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="16"/>
+      <c r="H39" s="12"/>
       <c r="I39" s="20">
         <v>43983.416666666664</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16" t="s">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L39" s="16"/>
+      <c r="L39" s="12"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="14"/>
+      <c r="N39" s="3"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="A40" s="12">
         <v>3</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12">
         <v>2</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12">
         <v>3</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H40" s="16"/>
+      <c r="H40" s="12"/>
       <c r="I40" s="20">
         <v>44014.458333333336</v>
       </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16" t="s">
+      <c r="J40" s="12"/>
+      <c r="K40" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L40" s="16"/>
+      <c r="L40" s="12"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="14"/>
+      <c r="N40" s="3"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="12">
         <v>4</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12">
         <v>2</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12">
         <v>2</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H41" s="16"/>
+      <c r="H41" s="12"/>
       <c r="I41" s="20">
         <v>43253.416666666664</v>
       </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16" t="s">
+      <c r="J41" s="12"/>
+      <c r="K41" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L41" s="16"/>
+      <c r="L41" s="12"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="14"/>
+      <c r="N41" s="3"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="A42" s="12">
         <v>5</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12">
         <v>3</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12">
         <v>4</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H42" s="16"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="20">
         <v>43648.458333333336</v>
       </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16" t="s">
+      <c r="J42" s="12"/>
+      <c r="K42" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L42" s="16"/>
+      <c r="L42" s="12"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="14"/>
+      <c r="N42" s="3"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="A43" s="12">
         <v>6</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12">
         <v>1</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16">
+      <c r="D43" s="12"/>
+      <c r="E43" s="12">
         <v>7</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="15" t="s">
+      <c r="F43" s="12"/>
+      <c r="G43" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="15"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="20">
         <v>44046.625</v>
       </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16" t="s">
+      <c r="J43" s="12"/>
+      <c r="K43" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L43" s="16"/>
+      <c r="L43" s="12"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="14"/>
+      <c r="N43" s="3"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="A44" s="12">
         <v>7</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12">
         <v>3</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12">
         <v>4</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16" t="s">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H44" s="16"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="20">
         <v>44077.458333333336</v>
       </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16" t="s">
+      <c r="J44" s="12"/>
+      <c r="K44" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L44" s="16"/>
+      <c r="L44" s="12"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3062,15 +3062,221 @@
     </row>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="Q26:V43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D20"/>
+    <mergeCell ref="A25:V25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A21:J24"/>
+    <mergeCell ref="K19:V19"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="K20:V20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J2:J20"/>
+    <mergeCell ref="E2:E20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="S6:T18"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="A5:B5"/>
@@ -3095,6 +3301,15 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -3110,221 +3325,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="S6:T18"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="J2:J20"/>
-    <mergeCell ref="E2:E20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D20"/>
-    <mergeCell ref="A25:V25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A21:J24"/>
-    <mergeCell ref="K19:V19"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="K20:V20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="Q26:V43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
